--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>606828.9267328259</v>
+        <v>532171.1196618911</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406463.2981009822</v>
+        <v>406463.2981009823</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7974106.44713469</v>
+        <v>7974106.447134689</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>47.06757182572066</v>
       </c>
       <c r="U3" t="n">
-        <v>154.8359655669564</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>120.9273370453295</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>51.87748497259537</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>115.6677505121453</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,64 +1144,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>17.5827378299188</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>236.634544917884</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
         <v>243.2386572690346</v>
       </c>
-      <c r="E11" t="n">
-        <v>276.1565137023555</v>
-      </c>
       <c r="F11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>68.70013939739761</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>217.0675544722512</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,7 +1514,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6773952840985035</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.4633753356636</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>83.18911269696753</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2785039334788</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>297.148034930398</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1688,13 +1688,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>148.6306425774558</v>
+        <v>32.30018441572875</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.27434132826706</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>163.3413660663109</v>
       </c>
       <c r="T15" t="n">
         <v>198.35454715303</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>89.55463581952145</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.71403280090139</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>160.3641786191053</v>
+        <v>160.3641786191054</v>
       </c>
       <c r="S16" t="n">
-        <v>217.4550733994452</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>142.9046269258102</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>413.784170020795</v>
@@ -1864,7 +1864,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>314.7038612617647</v>
       </c>
     </row>
     <row r="18">
@@ -1934,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.5310119231965</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>155.4526127311942</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>254.7848454013382</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>78.1410971806811</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,7 +2177,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I21" t="n">
         <v>61.42221998250818</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>68.19029374363589</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>230.2634979541059</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>169.7751448242505</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>62.45253193132572</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C25" t="n">
-        <v>92.00803688215797</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>169.765987702295</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>323.991859522895</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>94.63926978363978</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>90.7944658248523</v>
+        <v>276.298310651475</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2936,7 +2936,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>89.06613335611783</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>38.64228122219805</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>250.1325537001768</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>235.5000960026868</v>
       </c>
       <c r="W34" t="n">
-        <v>43.31785343914003</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>59.03226091544995</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>140.6923282165436</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>9.790440613649183</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>191.6314043402752</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -3523,7 +3523,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>114.7730200229822</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>52.17142175228562</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>302.4764856097665</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>80.3705206518887</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -3799,13 +3799,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>43.60620160013898</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>57.73991206543091</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>31.2765612508223</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>190.2416440979556</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>57.68157701938528</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4363,19 +4363,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>233.7108255783361</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4424,7 +4424,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>743.0968091171428</v>
       </c>
       <c r="U3" t="n">
-        <v>706.487660844374</v>
+        <v>743.0968091171428</v>
       </c>
       <c r="V3" t="n">
-        <v>471.3355526126313</v>
+        <v>743.0968091171428</v>
       </c>
       <c r="W3" t="n">
-        <v>227.8867759685313</v>
+        <v>499.6480324730428</v>
       </c>
       <c r="X3" t="n">
-        <v>20.03527576299844</v>
+        <v>499.6480324730428</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.03527576299844</v>
+        <v>291.8877337080889</v>
       </c>
     </row>
     <row r="4">
@@ -4506,19 +4506,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>243.9530410142718</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>243.9530410142718</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D5" t="n">
-        <v>243.9530410142718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>243.9530410142718</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>243.9530410142718</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>243.9530410142718</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>243.9530410142718</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.6083788665362</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,16 +4655,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X6" t="n">
-        <v>720.6083788665362</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y6" t="n">
-        <v>720.6083788665362</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="7">
@@ -4743,25 +4743,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5264424227252</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5264424227252</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>176.5264424227252</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>176.5264424227252</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>176.5264424227252</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>37.79561700534066</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>37.79561700534066</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4892,16 +4892,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>627.7355178317791</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W9" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X9" t="n">
-        <v>384.2867411876791</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5264424227252</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4986,28 +4986,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="C11" t="n">
-        <v>1104.626054809422</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="D11" t="n">
-        <v>858.9304414063566</v>
+        <v>825.6800813726992</v>
       </c>
       <c r="E11" t="n">
         <v>579.9844679696339</v>
       </c>
       <c r="F11" t="n">
+        <v>579.9844679696339</v>
+      </c>
+      <c r="G11" t="n">
         <v>301.0384945329112</v>
-      </c>
-      <c r="G11" t="n">
-        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
         <v>22.09252109618844</v>
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.09252109618844</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="C12" t="n">
-        <v>22.09252109618844</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="D12" t="n">
-        <v>22.09252109618844</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618844</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="F12" t="n">
-        <v>22.09252109618844</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="G12" t="n">
-        <v>22.09252109618844</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="H12" t="n">
-        <v>22.09252109618844</v>
+        <v>109.772397078701</v>
       </c>
       <c r="I12" t="n">
         <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K12" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L12" t="n">
-        <v>411.954469746149</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M12" t="n">
-        <v>685.3494183114809</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="N12" t="n">
-        <v>958.7443668768128</v>
+        <v>641.2451212288496</v>
       </c>
       <c r="O12" t="n">
-        <v>1104.626054809422</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P12" t="n">
         <v>1104.626054809422</v>
@@ -5147,25 +5147,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>932.6220420606005</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>730.7421420887098</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>511.4819860561328</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V12" t="n">
-        <v>276.3298778243901</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W12" t="n">
-        <v>22.09252109618844</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="X12" t="n">
-        <v>22.09252109618844</v>
+        <v>179.1664772780925</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.09252109618844</v>
+        <v>179.1664772780925</v>
       </c>
     </row>
     <row r="13">
@@ -5223,19 +5223,19 @@
         <v>198.9927170031359</v>
       </c>
       <c r="R13" t="n">
-        <v>22.776758756894</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
         <v>22.09252109618844</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1611.93134762825</v>
+        <v>424.0298701554636</v>
       </c>
       <c r="C14" t="n">
-        <v>1611.93134762825</v>
+        <v>424.0298701554636</v>
       </c>
       <c r="D14" t="n">
-        <v>1253.665649021499</v>
+        <v>424.0298701554636</v>
       </c>
       <c r="E14" t="n">
-        <v>867.8773964232549</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="F14" t="n">
-        <v>456.8914916336474</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="G14" t="n">
-        <v>38.2416175572195</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="H14" t="n">
-        <v>38.2416175572195</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I14" t="n">
-        <v>38.2416175572195</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827252</v>
+        <v>96.93923871827178</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977722</v>
+        <v>305.6565612977707</v>
       </c>
       <c r="L14" t="n">
-        <v>616.865483548009</v>
+        <v>616.8654835480065</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640754</v>
+        <v>979.7519185640722</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.878237938976</v>
+        <v>1333.878237938972</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.082041653887</v>
+        <v>1623.082041653882</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.236414250556</v>
+        <v>1832.23641425055</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.080877860975</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="R14" t="n">
-        <v>1912.080877860975</v>
+        <v>1828.051471096355</v>
       </c>
       <c r="S14" t="n">
-        <v>1912.080877860975</v>
+        <v>1828.051471096355</v>
       </c>
       <c r="T14" t="n">
-        <v>1912.080877860975</v>
+        <v>1828.051471096355</v>
       </c>
       <c r="U14" t="n">
-        <v>1912.080877860975</v>
+        <v>1574.234800456477</v>
       </c>
       <c r="V14" t="n">
-        <v>1912.080877860975</v>
+        <v>1574.234800456477</v>
       </c>
       <c r="W14" t="n">
-        <v>1912.080877860975</v>
+        <v>1574.234800456477</v>
       </c>
       <c r="X14" t="n">
-        <v>1611.93134762825</v>
+        <v>1200.769042195397</v>
       </c>
       <c r="Y14" t="n">
-        <v>1611.93134762825</v>
+        <v>810.6297102195854</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>337.3079894179211</v>
+        <v>245.3210957431229</v>
       </c>
       <c r="C15" t="n">
-        <v>337.3079894179211</v>
+        <v>70.86806646199588</v>
       </c>
       <c r="D15" t="n">
-        <v>188.3735797566699</v>
+        <v>70.86806646199588</v>
       </c>
       <c r="E15" t="n">
-        <v>38.2416175572195</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="F15" t="n">
-        <v>38.2416175572195</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="G15" t="n">
-        <v>38.2416175572195</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="H15" t="n">
-        <v>38.2416175572195</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I15" t="n">
-        <v>38.2416175572195</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J15" t="n">
-        <v>38.2416175572195</v>
+        <v>79.50813891877777</v>
       </c>
       <c r="K15" t="n">
-        <v>235.3935185137503</v>
+        <v>276.660039875308</v>
       </c>
       <c r="L15" t="n">
-        <v>561.8929756923587</v>
+        <v>603.1594970539157</v>
       </c>
       <c r="M15" t="n">
-        <v>703.6961494946952</v>
+        <v>1036.14818523716</v>
       </c>
       <c r="N15" t="n">
-        <v>1163.851773243556</v>
+        <v>1163.851773243551</v>
       </c>
       <c r="O15" t="n">
-        <v>1518.388592024571</v>
+        <v>1518.388592024566</v>
       </c>
       <c r="P15" t="n">
-        <v>1785.932577937004</v>
+        <v>1785.932577936998</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.080877860975</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="R15" t="n">
-        <v>1839.076492680907</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="S15" t="n">
-        <v>1839.076492680907</v>
+        <v>1747.089599006109</v>
       </c>
       <c r="T15" t="n">
-        <v>1638.718364243503</v>
+        <v>1546.731470568705</v>
       </c>
       <c r="U15" t="n">
-        <v>1410.52459036842</v>
+        <v>1318.537696693622</v>
       </c>
       <c r="V15" t="n">
-        <v>1175.372482136677</v>
+        <v>1083.385588461879</v>
       </c>
       <c r="W15" t="n">
-        <v>921.1351254084759</v>
+        <v>829.1482317336777</v>
       </c>
       <c r="X15" t="n">
-        <v>713.2836252029431</v>
+        <v>621.2967315281448</v>
       </c>
       <c r="Y15" t="n">
-        <v>505.5233264379892</v>
+        <v>413.5364327631909</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.2416175572195</v>
+        <v>298.0083914969612</v>
       </c>
       <c r="C16" t="n">
-        <v>38.2416175572195</v>
+        <v>298.0083914969612</v>
       </c>
       <c r="D16" t="n">
-        <v>38.2416175572195</v>
+        <v>298.0083914969612</v>
       </c>
       <c r="E16" t="n">
-        <v>38.2416175572195</v>
+        <v>207.5491633964344</v>
       </c>
       <c r="F16" t="n">
-        <v>38.2416175572195</v>
+        <v>207.5491633964344</v>
       </c>
       <c r="G16" t="n">
-        <v>38.2416175572195</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="H16" t="n">
-        <v>38.2416175572195</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I16" t="n">
-        <v>38.2416175572195</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J16" t="n">
-        <v>38.2416175572195</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="K16" t="n">
-        <v>59.50088325727442</v>
+        <v>59.500883257274</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473021</v>
+        <v>142.2318586473013</v>
       </c>
       <c r="M16" t="n">
-        <v>239.8491955519036</v>
+        <v>239.8491955519024</v>
       </c>
       <c r="N16" t="n">
-        <v>340.580026792243</v>
+        <v>340.5800267922414</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856863</v>
+        <v>417.6049576856843</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9924103041405</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="Q16" t="n">
-        <v>419.8772256567654</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="R16" t="n">
-        <v>257.8932068495884</v>
+        <v>298.0083914969612</v>
       </c>
       <c r="S16" t="n">
-        <v>38.2416175572195</v>
+        <v>298.0083914969612</v>
       </c>
       <c r="T16" t="n">
-        <v>38.2416175572195</v>
+        <v>298.0083914969612</v>
       </c>
       <c r="U16" t="n">
-        <v>38.2416175572195</v>
+        <v>298.0083914969612</v>
       </c>
       <c r="V16" t="n">
-        <v>38.2416175572195</v>
+        <v>298.0083914969612</v>
       </c>
       <c r="W16" t="n">
-        <v>38.2416175572195</v>
+        <v>298.0083914969612</v>
       </c>
       <c r="X16" t="n">
-        <v>38.2416175572195</v>
+        <v>298.0083914969612</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.2416175572195</v>
+        <v>298.0083914969612</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1893.689751284806</v>
+        <v>1168.064026826587</v>
       </c>
       <c r="C17" t="n">
-        <v>1893.689751284806</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284806</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W17" t="n">
-        <v>1893.689751284806</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X17" t="n">
-        <v>1893.689751284806</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y17" t="n">
-        <v>1893.689751284806</v>
+        <v>1168.064026826587</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
         <v>359.3385232961344</v>
@@ -5618,19 +5618,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5712,13 +5712,13 @@
         <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X19" t="n">
-        <v>210.9658229629848</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.9658229629848</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1210.087414675782</v>
+        <v>464.928886609972</v>
       </c>
       <c r="C20" t="n">
-        <v>1210.087414675782</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D20" t="n">
-        <v>1210.087414675782</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861747</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.483574129469</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W20" t="n">
-        <v>1583.553172936862</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X20" t="n">
-        <v>1210.087414675782</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y20" t="n">
-        <v>1210.087414675782</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5858,25 +5858,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5937,25 +5937,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1320.425425970681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="C23" t="n">
-        <v>951.4629090302697</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D23" t="n">
-        <v>593.1972104235191</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E23" t="n">
-        <v>207.4089578252748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F23" t="n">
-        <v>207.4089578252748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
         <v>207.4089578252748</v>
@@ -5989,19 +5989,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6016,25 +6016,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2470.630356271695</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2470.630356271695</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2470.630356271695</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>2470.630356271695</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>2470.630356271695</v>
+        <v>1775.577696228101</v>
       </c>
       <c r="X23" t="n">
-        <v>2097.164598010615</v>
+        <v>1402.111937967022</v>
       </c>
       <c r="Y23" t="n">
-        <v>1707.025266034803</v>
+        <v>1011.97260599121</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
         <v>266.206002764199</v>
@@ -6092,19 +6092,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C25" t="n">
-        <v>635.1915732143555</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D25" t="n">
-        <v>485.0749338020197</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E25" t="n">
-        <v>337.1618402196266</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
         <v>53.94298182036445</v>
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>833.8914035503838</v>
+        <v>1219.679656148628</v>
       </c>
       <c r="C26" t="n">
-        <v>464.928886609972</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="D26" t="n">
-        <v>464.928886609972</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E26" t="n">
         <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2294.462118204002</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2294.462118204002</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>1963.399230860431</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="W26" t="n">
-        <v>1610.630575590317</v>
+        <v>2369.884586449641</v>
       </c>
       <c r="X26" t="n">
-        <v>1610.630575590317</v>
+        <v>1996.418828188561</v>
       </c>
       <c r="Y26" t="n">
-        <v>1220.491243614505</v>
+        <v>1606.27949621275</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6317,13 +6317,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6344,10 +6344,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y27" t="n">
         <v>1156.713312237151</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2022.963088632153</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C28" t="n">
-        <v>2022.963088632153</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D28" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>2601.553869014546</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>882.8926947117852</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C29" t="n">
-        <v>882.8926947117852</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D29" t="n">
-        <v>882.8926947117852</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6490,25 +6490,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2048.575150942547</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>1717.512263598976</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W29" t="n">
-        <v>1364.743608328862</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X29" t="n">
-        <v>1273.032026687597</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="Y29" t="n">
-        <v>882.8926947117852</v>
+        <v>1261.831893336434</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6542,31 +6542,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
         <v>2488.762748073963</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S31" t="n">
-        <v>2504.955764169438</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T31" t="n">
-        <v>2277.64757683804</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U31" t="n">
-        <v>2277.64757683804</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1760.851696582593</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C32" t="n">
-        <v>1760.851696582593</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D32" t="n">
-        <v>1402.585997975842</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E32" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>2147.451536646714</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W32" t="n">
-        <v>2147.451536646714</v>
+        <v>1409.824428977775</v>
       </c>
       <c r="X32" t="n">
-        <v>2147.451536646714</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="Y32" t="n">
-        <v>2147.451536646714</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064344</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W34" t="n">
-        <v>684.3735766921516</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X34" t="n">
-        <v>456.3840257941342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y34" t="n">
-        <v>235.5914466506042</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1268.68094731003</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2637.52054463898</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T35" t="n">
-        <v>2418.885877611043</v>
+        <v>2500.006938703722</v>
       </c>
       <c r="U35" t="n">
-        <v>2418.885877611043</v>
+        <v>2246.245153341813</v>
       </c>
       <c r="V35" t="n">
-        <v>2418.885877611043</v>
+        <v>1915.182265998242</v>
       </c>
       <c r="W35" t="n">
-        <v>2418.885877611043</v>
+        <v>1562.413610728128</v>
       </c>
       <c r="X35" t="n">
-        <v>2045.420119349963</v>
+        <v>1188.947852467049</v>
       </c>
       <c r="Y35" t="n">
-        <v>1655.280787374151</v>
+        <v>798.8085204912368</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
@@ -7040,7 +7040,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
         <v>2488.762748073963</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2179.742370083244</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C37" t="n">
-        <v>2179.742370083244</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D37" t="n">
-        <v>2179.742370083244</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>2169.853036130063</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>2407.731920981262</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>2179.742370083244</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>2179.742370083244</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1504.400259589023</v>
+        <v>2053.247973680502</v>
       </c>
       <c r="C38" t="n">
-        <v>1504.400259589023</v>
+        <v>1684.28545674009</v>
       </c>
       <c r="D38" t="n">
-        <v>1146.134560982272</v>
+        <v>1326.01975813334</v>
       </c>
       <c r="E38" t="n">
-        <v>1146.134560982272</v>
+        <v>1326.01975813334</v>
       </c>
       <c r="F38" t="n">
-        <v>952.5674858910851</v>
+        <v>915.0338533437325</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>497.0700452419194</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>169.8753252779222</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V38" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W38" t="n">
-        <v>1894.539591564834</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X38" t="n">
-        <v>1894.539591564834</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y38" t="n">
-        <v>1504.400259589023</v>
+        <v>2053.247973680502</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7280,16 +7280,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>411.2797076961342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>264.3897601982238</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036445</v>
@@ -7365,19 +7365,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1309.714918859356</v>
+        <v>1322.340737411352</v>
       </c>
       <c r="C41" t="n">
-        <v>1309.714918859356</v>
+        <v>1322.340737411352</v>
       </c>
       <c r="D41" t="n">
-        <v>1004.183115213127</v>
+        <v>964.0750388046019</v>
       </c>
       <c r="E41" t="n">
-        <v>618.3948626148824</v>
+        <v>964.0750388046019</v>
       </c>
       <c r="F41" t="n">
-        <v>207.4089578252748</v>
+        <v>553.0891340149944</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>135.1253259131813</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.48357412947</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.714918859356</v>
+        <v>1695.806495672432</v>
       </c>
       <c r="X41" t="n">
-        <v>1309.714918859356</v>
+        <v>1322.340737411352</v>
       </c>
       <c r="Y41" t="n">
-        <v>1309.714918859356</v>
+        <v>1322.340737411352</v>
       </c>
     </row>
     <row r="42">
@@ -7466,73 +7466,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>200.8329293182748</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="C43" t="n">
-        <v>200.8329293182748</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="D43" t="n">
-        <v>200.8329293182748</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="E43" t="n">
-        <v>200.8329293182748</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245969</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T43" t="n">
-        <v>513.8405610245969</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U43" t="n">
-        <v>513.8405610245969</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V43" t="n">
-        <v>259.1560728187101</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="W43" t="n">
-        <v>259.1560728187101</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="X43" t="n">
-        <v>200.8329293182748</v>
+        <v>97.9896501033331</v>
       </c>
       <c r="Y43" t="n">
-        <v>200.8329293182748</v>
+        <v>97.9896501033331</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1525.74665604171</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="C44" t="n">
-        <v>1156.784139101298</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D44" t="n">
-        <v>798.5184404945476</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E44" t="n">
-        <v>412.7301878963033</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F44" t="n">
-        <v>412.7301878963033</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>412.7301878963033</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>85.53546793230618</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533141</v>
@@ -7654,7 +7654,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>2289.351746278601</v>
+        <v>1646.497784948677</v>
       </c>
       <c r="X44" t="n">
-        <v>1915.885988017521</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y44" t="n">
-        <v>1525.74665604171</v>
+        <v>882.8926947117851</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L45" t="n">
         <v>713.8062203571349</v>
@@ -7766,10 +7766,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V46" t="n">
-        <v>438.9553738610022</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W46" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8072,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P3" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,19 +8540,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>242.4075215744184</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,16 +8777,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>399.2039605324505</v>
+        <v>361.0244890520117</v>
       </c>
       <c r="N12" t="n">
-        <v>387.9064735273547</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O12" t="n">
-        <v>272.0288590235227</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>119.5899201578276</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>130.3661252938572</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>84.40768042974349</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>171.5782815470616</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>143.5322372299481</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>145.0294169142005</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9965,13 +9965,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22603,13 +22603,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22634,7 +22634,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22643,13 +22643,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>153.097156869101</v>
       </c>
       <c r="U3" t="n">
-        <v>71.10541651401837</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22786,13 +22786,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>164.9367954821779</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22804,7 +22804,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>130.418315862507</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22865,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>95.56758059204338</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,7 +22916,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22928,10 +22928,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>90.01494526515904</v>
       </c>
     </row>
     <row r="7">
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>302.8566240687152</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>71.81389502149628</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,25 +23150,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>15.06043824303563</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23199,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23260,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D11" t="n">
-        <v>111.4443843516483</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>105.7738563699063</v>
+        <v>138.6917128032271</v>
       </c>
       <c r="F11" t="n">
-        <v>130.719532039356</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0329468943008</v>
+        <v>61.87643319194535</v>
       </c>
       <c r="I11" t="n">
         <v>205.0481221176458</v>
@@ -23354,10 +23354,10 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5079271034444</v>
+        <v>42.80778770604684</v>
       </c>
       <c r="I12" t="n">
-        <v>86.80307722268739</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>8.868871769942587</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23463,10 +23463,10 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
-        <v>222.2386165758481</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
         <v>227.6757534850358</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.4633753356636</v>
       </c>
       <c r="H14" t="n">
-        <v>330.8786841952547</v>
+        <v>330.8786841952548</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1163791463312</v>
+        <v>178.1163791463314</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492355</v>
+        <v>13.95442073795638</v>
       </c>
       <c r="S14" t="n">
-        <v>189.8931039215387</v>
+        <v>189.8931039215388</v>
       </c>
       <c r="T14" t="n">
         <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2785039334788</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>72.58306574807102</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,13 +23576,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>9.014437877945113</v>
+        <v>125.3448960396722</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23594,7 +23594,7 @@
         <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493641</v>
+        <v>73.93425515493651</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.27434132826724</v>
       </c>
       <c r="S15" t="n">
-        <v>163.3413660663108</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>56.87932682704772</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6144703808229</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>158.8796654153678</v>
+        <v>158.8796654153679</v>
       </c>
       <c r="I16" t="n">
         <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
-        <v>66.73999539781603</v>
+        <v>66.73999539781622</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>14.92051778711941</v>
+        <v>54.63455058802101</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>217.4550733994452</v>
       </c>
       <c r="T16" t="n">
         <v>226.33686925111</v>
@@ -23734,16 +23734,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>211.7784146948728</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>71.53407739428889</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.37936745074313</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>72.6705324754106</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>127.9489962621424</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>271.0998715367319</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>78.24366890293328</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
@@ -24177,19 +24177,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>56.01837628787183</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>4.640567984721031</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>286.7884367860873</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C25" t="n">
-        <v>75.23878421646987</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24451,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>46.68233265536281</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.760398947239878</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24654,16 +24654,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>130.3958356744445</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>278.9366348536167</v>
+        <v>93.43279002699404</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>59.54933966209452</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24888,19 +24888,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
-        <v>21.87414536972213</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>343.2880888500637</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>99.10841501723618</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25134,16 +25134,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>16.63754732114123</v>
       </c>
       <c r="W34" t="n">
-        <v>243.205144897451</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25159,16 +25159,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>115.3834518935216</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>75.75599214111415</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>136.64352203292</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25374,10 +25374,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>215.2446414014362</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>37.15829622187906</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25551,22 +25551,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>115.1383805067653</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
@@ -25605,13 +25605,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>52.20655601091647</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>243.5522521124685</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>101.8148464227923</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25833,13 +25833,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>167.9697433236063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,25 +25867,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6547549940389</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>158.9993246194574</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26034,19 +26034,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>87.73947100354596</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26076,7 +26076,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473736.551549513</v>
+        <v>473736.5515495131</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473736.551549513</v>
+        <v>473736.5515495131</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>503568.9166679049</v>
+        <v>503568.916667905</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657566.8152634922</v>
+        <v>657566.815263491</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>807285.7756484512</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="C2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
         <v>132928.5380250659</v>
@@ -26325,7 +26325,7 @@
         <v>141745.4664845208</v>
       </c>
       <c r="F2" t="n">
-        <v>187164.7872550208</v>
+        <v>187164.7872550204</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
@@ -26334,7 +26334,7 @@
         <v>231322.0880126062</v>
       </c>
       <c r="I2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="J2" t="n">
         <v>231322.0880126062</v>
@@ -26343,10 +26343,10 @@
         <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="M2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="N2" t="n">
         <v>231322.0880126061</v>
@@ -26377,10 +26377,10 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689338</v>
+        <v>195194.8921689322</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328015</v>
+        <v>185152.0893328031</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138692</v>
+        <v>49441.87186138651</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112622</v>
+        <v>47231.86264112656</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26444,13 +26444,13 @@
         <v>27086.83710496504</v>
       </c>
       <c r="K4" t="n">
-        <v>27086.83710496504</v>
+        <v>27086.83710496503</v>
       </c>
       <c r="L4" t="n">
         <v>27086.83710496504</v>
       </c>
       <c r="M4" t="n">
-        <v>27086.83710496503</v>
+        <v>27086.83710496504</v>
       </c>
       <c r="N4" t="n">
         <v>27086.83710496504</v>
@@ -26481,7 +26481,7 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221585</v>
+        <v>33615.28060221572</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21404.43048286276</v>
+        <v>-33622.44110290319</v>
       </c>
       <c r="C6" t="n">
-        <v>59365.00104868503</v>
+        <v>47146.99042864448</v>
       </c>
       <c r="D6" t="n">
-        <v>59365.00104868497</v>
+        <v>47146.99042864451</v>
       </c>
       <c r="E6" t="n">
-        <v>60178.30113795678</v>
+        <v>48511.34854663228</v>
       </c>
       <c r="F6" t="n">
-        <v>-67892.75653450596</v>
+        <v>-76721.00157767297</v>
       </c>
       <c r="G6" t="n">
-        <v>-30148.31648856997</v>
+        <v>-36216.73023439072</v>
       </c>
       <c r="H6" t="n">
-        <v>155003.7728442317</v>
+        <v>148935.3590984125</v>
       </c>
       <c r="I6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984125</v>
       </c>
       <c r="J6" t="n">
-        <v>91943.8302451255</v>
+        <v>85875.41649930629</v>
       </c>
       <c r="K6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
       <c r="L6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984125</v>
       </c>
       <c r="M6" t="n">
-        <v>146246.1898490179</v>
+        <v>140177.7761031988</v>
       </c>
       <c r="N6" t="n">
-        <v>105561.9009828446</v>
+        <v>99493.48723702593</v>
       </c>
       <c r="O6" t="n">
-        <v>107771.9102031054</v>
+        <v>101703.4964572859</v>
       </c>
       <c r="P6" t="n">
-        <v>155003.7728442316</v>
+        <v>148935.3590984124</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>208.7913421435337</v>
+        <v>208.7913421435323</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26767,10 +26767,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
         <v>377.7436642170866</v>
@@ -26801,37 +26801,37 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>478.0202194652437</v>
+        <v>478.0202194652421</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26971,10 +26971,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7700814244083</v>
+        <v>173.770081424407</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735529</v>
+        <v>168.9523220735543</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>201.8637057628882</v>
+        <v>201.8637057628865</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893119</v>
+        <v>196.2670532893135</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27047,10 +27047,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628882</v>
+        <v>201.8637057628865</v>
       </c>
       <c r="O4" t="n">
-        <v>196.267053289312</v>
+        <v>196.2670532893134</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628882</v>
+        <v>201.8637057628865</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893119</v>
+        <v>196.2670532893135</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714915</v>
+        <v>0.8393621794714859</v>
       </c>
       <c r="H14" t="n">
-        <v>8.596117920512414</v>
+        <v>8.596117920512357</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407471</v>
+        <v>32.35951042407449</v>
       </c>
       <c r="J14" t="n">
-        <v>71.23981577991857</v>
+        <v>71.23981577991809</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369468</v>
+        <v>106.7700168369461</v>
       </c>
       <c r="L14" t="n">
-        <v>132.4576471369475</v>
+        <v>132.4576471369466</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961236</v>
+        <v>147.3846542961227</v>
       </c>
       <c r="N14" t="n">
-        <v>149.769492088547</v>
+        <v>149.769492088546</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4230844164274</v>
+        <v>141.4230844164264</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107249</v>
+        <v>120.7013306107241</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.64167255840209</v>
+        <v>90.6416725584015</v>
       </c>
       <c r="R14" t="n">
-        <v>52.72558450622613</v>
+        <v>52.72558450622578</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470663</v>
+        <v>19.12696566470651</v>
       </c>
       <c r="T14" t="n">
-        <v>3.674307940636456</v>
+        <v>3.674307940636432</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771931</v>
+        <v>0.06714897435771887</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728838</v>
+        <v>0.4490983585728808</v>
       </c>
       <c r="H15" t="n">
-        <v>4.337344673585483</v>
+        <v>4.337344673585455</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647868</v>
+        <v>15.46237769647857</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692321</v>
+        <v>42.42994623692292</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51953626130641</v>
+        <v>72.51953626130593</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596995883</v>
+        <v>97.51146596995818</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682258</v>
+        <v>113.7912814682251</v>
       </c>
       <c r="N15" t="n">
-        <v>116.8029980921642</v>
+        <v>116.8029980921634</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364177</v>
+        <v>106.8519239364169</v>
       </c>
       <c r="P15" t="n">
-        <v>85.75808919099218</v>
+        <v>85.7580891909916</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152590005</v>
+        <v>57.32701152589966</v>
       </c>
       <c r="R15" t="n">
-        <v>27.88349282437608</v>
+        <v>27.88349282437589</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037527024</v>
+        <v>8.341805037526969</v>
       </c>
       <c r="T15" t="n">
-        <v>1.810181541791579</v>
+        <v>1.810181541791567</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02954594464295289</v>
+        <v>0.0295459446429527</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358804</v>
+        <v>0.3765089776358779</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071739</v>
+        <v>3.347507092071717</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017721</v>
+        <v>11.32265180017713</v>
       </c>
       <c r="J16" t="n">
-        <v>26.61918471885674</v>
+        <v>26.61918471885656</v>
       </c>
       <c r="K16" t="n">
-        <v>43.74349758351409</v>
+        <v>43.7434975835138</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779262</v>
+        <v>55.97661654779225</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886804</v>
+        <v>59.01949364886764</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495254</v>
+        <v>57.61614200495215</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438791</v>
+        <v>53.21783258438756</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061592</v>
+        <v>45.53704944061561</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367358</v>
+        <v>31.52749266367337</v>
       </c>
       <c r="R16" t="n">
-        <v>16.92921275806422</v>
+        <v>16.9292127580641</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527113</v>
+        <v>6.561524637527069</v>
       </c>
       <c r="T16" t="n">
-        <v>1.608720177171489</v>
+        <v>1.608720177171478</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0205368533255935</v>
+        <v>0.02053685332559336</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34792,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P3" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>99.8112771299739</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>138.7877391315785</v>
@@ -35497,16 +35497,16 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>276.1565137023555</v>
+        <v>237.9770422219167</v>
       </c>
       <c r="N12" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>147.3552403359688</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.29052642530606</v>
+        <v>59.29052642530557</v>
       </c>
       <c r="K14" t="n">
-        <v>210.825578363131</v>
+        <v>210.8255783631303</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174107</v>
+        <v>314.3524467174099</v>
       </c>
       <c r="M14" t="n">
-        <v>366.5519545616834</v>
+        <v>366.5519545616825</v>
       </c>
       <c r="N14" t="n">
-        <v>357.7033529039403</v>
+        <v>357.7033529039393</v>
       </c>
       <c r="O14" t="n">
-        <v>292.125054257486</v>
+        <v>292.1250542574851</v>
       </c>
       <c r="P14" t="n">
-        <v>211.267043026938</v>
+        <v>211.2670430269372</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.65097334385729</v>
+        <v>80.65097334385669</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.68335491066507</v>
       </c>
       <c r="K15" t="n">
-        <v>199.143334299526</v>
+        <v>199.1433342995255</v>
       </c>
       <c r="L15" t="n">
-        <v>329.7974314935439</v>
+        <v>329.7974314935432</v>
       </c>
       <c r="M15" t="n">
-        <v>143.2355290932692</v>
+        <v>437.3623112962067</v>
       </c>
       <c r="N15" t="n">
-        <v>464.8036603523844</v>
+        <v>128.9935232387782</v>
       </c>
       <c r="O15" t="n">
-        <v>358.1179987687028</v>
+        <v>358.117998768702</v>
       </c>
       <c r="P15" t="n">
-        <v>270.2464504165991</v>
+        <v>270.2464504165985</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.4225251757276</v>
+        <v>127.4225251757272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763124</v>
+        <v>21.47400575763095</v>
       </c>
       <c r="L16" t="n">
-        <v>83.56664180810876</v>
+        <v>83.56664180810839</v>
       </c>
       <c r="M16" t="n">
-        <v>98.60337061070862</v>
+        <v>98.60337061070823</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7483143841811</v>
+        <v>101.7483143841807</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842758</v>
+        <v>77.80296049842724</v>
       </c>
       <c r="P16" t="n">
-        <v>42.8156087055094</v>
+        <v>42.8156087055091</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
-        <v>138.3897561047517</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36685,13 +36685,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37326,7 +37326,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,13 +37396,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>54.37527471535575</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>532171.1196618911</v>
+        <v>598488.7348814012</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406463.2981009823</v>
+        <v>406463.2981009822</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11783336.69528065</v>
+        <v>11783336.69528064</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7974106.447134689</v>
+        <v>7974106.44713469</v>
       </c>
     </row>
     <row r="11">
@@ -664,64 +664,64 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F2" t="n">
+      <c r="V2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G2" t="n">
+      <c r="W2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>47.06757182572066</v>
+        <v>90.50278177497621</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>115.6677505121453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>236.634544917884</v>
+        <v>31.60815104066432</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>243.2386572690346</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="H11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>155.8903435161421</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>68.70013939739761</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>86.80307722268739</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
         <v>225.9364262421938</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>137.1286381567953</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="W13" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>355.1006369871007</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.4633753356636</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>83.18911269696753</v>
+        <v>97.1435334349236</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2785039334788</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>32.30018441572875</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.27434132826708</v>
       </c>
       <c r="S15" t="n">
-        <v>163.3413660663109</v>
+        <v>163.3413660663108</v>
       </c>
       <c r="T15" t="n">
-        <v>198.35454715303</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9118361363319</v>
+        <v>198.5409372538392</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,7 +1751,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>89.55463581952145</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6144703808229</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>160.3641786191054</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>125.6782741499511</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>22.75881057092663</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>314.7038612617647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>254.7848454013382</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -2143,13 +2143,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>140.7496912586415</v>
       </c>
     </row>
     <row r="21">
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2177,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>68.19029374363589</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>195.7571515107713</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.3623370789933324</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>62.45253193132572</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>323.991859522895</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>381.0098678748367</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -2854,13 +2854,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>276.298310651475</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>349.0678201131504</v>
       </c>
     </row>
     <row r="30">
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>89.06613335611783</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>348.1634516111779</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>250.1325537001768</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>235.5000960026868</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>150.8242332627656</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>140.6923282165436</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -3331,10 +3331,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.02048567924311</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>103.5576146249975</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>114.7730200229822</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,7 +3757,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>80.3705206518887</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,19 +3787,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>24.23593102112018</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>43.60620160013898</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>26.32882004050031</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>164.7314984317822</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>190.2416440979556</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>291.8877337080889</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C3" t="n">
-        <v>291.8877337080889</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D3" t="n">
-        <v>291.8877337080889</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E3" t="n">
-        <v>132.6502787026334</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
         <v>19.28114311021272</v>
@@ -4418,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>743.0968091171428</v>
+        <v>872.6402042227814</v>
       </c>
       <c r="U3" t="n">
-        <v>743.0968091171428</v>
+        <v>644.4165859591706</v>
       </c>
       <c r="V3" t="n">
-        <v>743.0968091171428</v>
+        <v>409.2644777274278</v>
       </c>
       <c r="W3" t="n">
-        <v>499.6480324730428</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="X3" t="n">
-        <v>499.6480324730428</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="Y3" t="n">
-        <v>291.8877337080889</v>
+        <v>165.8157010833278</v>
       </c>
     </row>
     <row r="4">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D5" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193.7341723913397</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4655,7 +4655,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>761.8705608694022</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>761.8705608694022</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>518.4217842253022</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X6" t="n">
-        <v>310.5702840197694</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y6" t="n">
-        <v>193.7341723913397</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="7">
@@ -4764,7 +4764,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>325.7766548071333</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>569.2254314512334</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4922,13 +4922,13 @@
         <v>259.0600686093459</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299844</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="C11" t="n">
-        <v>825.6800813726992</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="D11" t="n">
-        <v>825.6800813726992</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E11" t="n">
         <v>579.9844679696339</v>
       </c>
       <c r="F11" t="n">
-        <v>579.9844679696339</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G11" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H11" t="n">
         <v>22.09252109618844</v>
@@ -5050,10 +5050,10 @@
         <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O11" t="n">
         <v>989.7620250901066</v>
@@ -5065,28 +5065,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S11" t="n">
-        <v>1104.626054809422</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="U11" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="V11" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="W11" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="X11" t="n">
-        <v>1104.626054809422</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="Y11" t="n">
-        <v>1104.626054809422</v>
+        <v>579.9844679696339</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>179.1664772780925</v>
+        <v>109.772397078701</v>
       </c>
       <c r="C12" t="n">
-        <v>179.1664772780925</v>
+        <v>109.772397078701</v>
       </c>
       <c r="D12" t="n">
-        <v>179.1664772780925</v>
+        <v>109.772397078701</v>
       </c>
       <c r="E12" t="n">
-        <v>179.1664772780925</v>
+        <v>109.772397078701</v>
       </c>
       <c r="F12" t="n">
-        <v>179.1664772780925</v>
+        <v>109.772397078701</v>
       </c>
       <c r="G12" t="n">
-        <v>179.1664772780925</v>
+        <v>109.772397078701</v>
       </c>
       <c r="H12" t="n">
         <v>109.772397078701</v>
@@ -5129,16 +5129,16 @@
         <v>405.6478494291521</v>
       </c>
       <c r="M12" t="n">
-        <v>641.2451212288496</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2451212288496</v>
+        <v>562.3310704112777</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121334</v>
+        <v>828.8278839945615</v>
       </c>
       <c r="P12" t="n">
-        <v>1104.626054809422</v>
+        <v>1025.71200399185</v>
       </c>
       <c r="Q12" t="n">
         <v>1104.626054809422</v>
@@ -5147,25 +5147,25 @@
         <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>1104.626054809422</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T12" t="n">
-        <v>1104.626054809422</v>
+        <v>730.7421420887098</v>
       </c>
       <c r="U12" t="n">
-        <v>876.4074424435696</v>
+        <v>502.5235297228575</v>
       </c>
       <c r="V12" t="n">
-        <v>641.2553342118269</v>
+        <v>364.0097538069026</v>
       </c>
       <c r="W12" t="n">
-        <v>387.0179774836253</v>
+        <v>109.772397078701</v>
       </c>
       <c r="X12" t="n">
-        <v>179.1664772780925</v>
+        <v>109.772397078701</v>
       </c>
       <c r="Y12" t="n">
-        <v>179.1664772780925</v>
+        <v>109.772397078701</v>
       </c>
     </row>
     <row r="13">
@@ -5235,7 +5235,7 @@
         <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>198.9927170031359</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W13" t="n">
         <v>22.09252109618844</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>424.0298701554636</v>
+        <v>815.5790037418299</v>
       </c>
       <c r="C14" t="n">
-        <v>424.0298701554636</v>
+        <v>456.8914916336473</v>
       </c>
       <c r="D14" t="n">
-        <v>424.0298701554636</v>
+        <v>456.8914916336473</v>
       </c>
       <c r="E14" t="n">
-        <v>38.24161755721936</v>
+        <v>456.8914916336473</v>
       </c>
       <c r="F14" t="n">
-        <v>38.24161755721936</v>
+        <v>456.8914916336473</v>
       </c>
       <c r="G14" t="n">
-        <v>38.24161755721936</v>
+        <v>38.24161755721948</v>
       </c>
       <c r="H14" t="n">
-        <v>38.24161755721936</v>
+        <v>38.24161755721948</v>
       </c>
       <c r="I14" t="n">
-        <v>38.24161755721936</v>
+        <v>38.24161755721948</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827178</v>
+        <v>96.93923871827243</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977707</v>
+        <v>305.656561297772</v>
       </c>
       <c r="L14" t="n">
-        <v>616.8654835480065</v>
+        <v>616.8654835480086</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640722</v>
+        <v>979.7519185640751</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.878237938972</v>
+        <v>1333.878237938976</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.082041653882</v>
+        <v>1623.082041653887</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.23641425055</v>
+        <v>1832.236414250555</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.080877860968</v>
+        <v>1912.080877860974</v>
       </c>
       <c r="R14" t="n">
-        <v>1828.051471096355</v>
+        <v>1813.956096613576</v>
       </c>
       <c r="S14" t="n">
-        <v>1828.051471096355</v>
+        <v>1813.956096613576</v>
       </c>
       <c r="T14" t="n">
-        <v>1828.051471096355</v>
+        <v>1592.318175781763</v>
       </c>
       <c r="U14" t="n">
-        <v>1574.234800456477</v>
+        <v>1592.318175781763</v>
       </c>
       <c r="V14" t="n">
-        <v>1574.234800456477</v>
+        <v>1592.318175781763</v>
       </c>
       <c r="W14" t="n">
-        <v>1574.234800456477</v>
+        <v>1592.318175781763</v>
       </c>
       <c r="X14" t="n">
-        <v>1200.769042195397</v>
+        <v>1592.318175781763</v>
       </c>
       <c r="Y14" t="n">
-        <v>810.6297102195854</v>
+        <v>1202.178843805952</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>245.3210957431229</v>
+        <v>776.3890488346441</v>
       </c>
       <c r="C15" t="n">
-        <v>70.86806646199588</v>
+        <v>601.9360195535171</v>
       </c>
       <c r="D15" t="n">
-        <v>70.86806646199588</v>
+        <v>453.0016098922658</v>
       </c>
       <c r="E15" t="n">
-        <v>38.24161755721936</v>
+        <v>293.7641548868103</v>
       </c>
       <c r="F15" t="n">
-        <v>38.24161755721936</v>
+        <v>147.2295969136952</v>
       </c>
       <c r="G15" t="n">
-        <v>38.24161755721936</v>
+        <v>147.2295969136952</v>
       </c>
       <c r="H15" t="n">
-        <v>38.24161755721936</v>
+        <v>38.24161755721948</v>
       </c>
       <c r="I15" t="n">
-        <v>38.24161755721936</v>
+        <v>38.24161755721948</v>
       </c>
       <c r="J15" t="n">
-        <v>79.50813891877777</v>
+        <v>79.50813891877813</v>
       </c>
       <c r="K15" t="n">
-        <v>276.660039875308</v>
+        <v>276.6600398753088</v>
       </c>
       <c r="L15" t="n">
-        <v>603.1594970539157</v>
+        <v>603.1594970539171</v>
       </c>
       <c r="M15" t="n">
-        <v>1036.14818523716</v>
+        <v>1036.148185237162</v>
       </c>
       <c r="N15" t="n">
-        <v>1163.851773243551</v>
+        <v>1496.303808986023</v>
       </c>
       <c r="O15" t="n">
-        <v>1518.388592024566</v>
+        <v>1850.840627767039</v>
       </c>
       <c r="P15" t="n">
-        <v>1785.932577936998</v>
+        <v>1912.080877860974</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.080877860968</v>
+        <v>1912.080877860974</v>
       </c>
       <c r="R15" t="n">
-        <v>1912.080877860968</v>
+        <v>1839.076492680906</v>
       </c>
       <c r="S15" t="n">
-        <v>1747.089599006109</v>
+        <v>1674.085213826047</v>
       </c>
       <c r="T15" t="n">
-        <v>1546.731470568705</v>
+        <v>1674.085213826047</v>
       </c>
       <c r="U15" t="n">
-        <v>1318.537696693622</v>
+        <v>1473.538812559542</v>
       </c>
       <c r="V15" t="n">
-        <v>1083.385588461879</v>
+        <v>1238.3867043278</v>
       </c>
       <c r="W15" t="n">
-        <v>829.1482317336777</v>
+        <v>984.1493475995981</v>
       </c>
       <c r="X15" t="n">
-        <v>621.2967315281448</v>
+        <v>984.1493475995981</v>
       </c>
       <c r="Y15" t="n">
-        <v>413.5364327631909</v>
+        <v>776.3890488346441</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>298.0083914969612</v>
+        <v>333.044658637523</v>
       </c>
       <c r="C16" t="n">
-        <v>298.0083914969612</v>
+        <v>333.044658637523</v>
       </c>
       <c r="D16" t="n">
-        <v>298.0083914969612</v>
+        <v>333.044658637523</v>
       </c>
       <c r="E16" t="n">
-        <v>207.5491633964344</v>
+        <v>185.1315650551298</v>
       </c>
       <c r="F16" t="n">
-        <v>207.5491633964344</v>
+        <v>38.24161755721948</v>
       </c>
       <c r="G16" t="n">
-        <v>38.24161755721936</v>
+        <v>38.24161755721948</v>
       </c>
       <c r="H16" t="n">
-        <v>38.24161755721936</v>
+        <v>38.24161755721948</v>
       </c>
       <c r="I16" t="n">
-        <v>38.24161755721936</v>
+        <v>38.24161755721948</v>
       </c>
       <c r="J16" t="n">
-        <v>38.24161755721936</v>
+        <v>38.24161755721948</v>
       </c>
       <c r="K16" t="n">
-        <v>59.500883257274</v>
+        <v>59.50088325727437</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473013</v>
+        <v>142.231858647302</v>
       </c>
       <c r="M16" t="n">
-        <v>239.8491955519024</v>
+        <v>239.8491955519034</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5800267922414</v>
+        <v>340.5800267922427</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856843</v>
+        <v>417.604957685686</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9924103041383</v>
+        <v>459.9924103041402</v>
       </c>
       <c r="Q16" t="n">
-        <v>459.9924103041383</v>
+        <v>459.9924103041402</v>
       </c>
       <c r="R16" t="n">
-        <v>298.0083914969612</v>
+        <v>459.9924103041402</v>
       </c>
       <c r="S16" t="n">
-        <v>298.0083914969612</v>
+        <v>459.9924103041402</v>
       </c>
       <c r="T16" t="n">
-        <v>298.0083914969612</v>
+        <v>459.9924103041402</v>
       </c>
       <c r="U16" t="n">
-        <v>298.0083914969612</v>
+        <v>459.9924103041402</v>
       </c>
       <c r="V16" t="n">
-        <v>298.0083914969612</v>
+        <v>459.9924103041402</v>
       </c>
       <c r="W16" t="n">
-        <v>298.0083914969612</v>
+        <v>459.9924103041402</v>
       </c>
       <c r="X16" t="n">
-        <v>298.0083914969612</v>
+        <v>459.9924103041402</v>
       </c>
       <c r="Y16" t="n">
-        <v>298.0083914969612</v>
+        <v>333.044658637523</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1168.064026826587</v>
+        <v>1672.817798126042</v>
       </c>
       <c r="C17" t="n">
-        <v>799.1015098861748</v>
+        <v>1303.85528118563</v>
       </c>
       <c r="D17" t="n">
-        <v>799.1015098861748</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="E17" t="n">
-        <v>799.1015098861748</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T17" t="n">
-        <v>2465.942913862886</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U17" t="n">
-        <v>2212.181128500977</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V17" t="n">
-        <v>2212.181128500977</v>
+        <v>2025.586453396156</v>
       </c>
       <c r="W17" t="n">
-        <v>1859.412473230863</v>
+        <v>1672.817798126042</v>
       </c>
       <c r="X17" t="n">
-        <v>1485.946714969783</v>
+        <v>1672.817798126042</v>
       </c>
       <c r="Y17" t="n">
-        <v>1168.064026826587</v>
+        <v>1672.817798126042</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
         <v>129.2001442204943</v>
@@ -5600,43 +5600,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5706,19 +5706,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W19" t="n">
-        <v>149.5382038240415</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X19" t="n">
-        <v>149.5382038240415</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y19" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C20" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D20" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E20" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V20" t="n">
-        <v>1838.661061815299</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W20" t="n">
-        <v>1485.892406545185</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X20" t="n">
-        <v>1112.426648284105</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y20" t="n">
-        <v>722.2873163082934</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
@@ -5837,19 +5837,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.7118141694736</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="C22" t="n">
-        <v>438.7118141694736</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D22" t="n">
-        <v>438.7118141694736</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
         <v>53.94298182036445</v>
@@ -5949,13 +5949,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>438.7118141694736</v>
+        <v>530.3944877309076</v>
       </c>
       <c r="Y22" t="n">
-        <v>438.7118141694736</v>
+        <v>530.3944877309076</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>625.3727659270879</v>
+        <v>1722.185086336931</v>
       </c>
       <c r="C23" t="n">
-        <v>625.3727659270879</v>
+        <v>1722.185086336931</v>
       </c>
       <c r="D23" t="n">
-        <v>625.3727659270879</v>
+        <v>1363.919387730181</v>
       </c>
       <c r="E23" t="n">
-        <v>625.3727659270879</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
         <v>207.4089578252748</v>
@@ -5989,7 +5989,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W23" t="n">
-        <v>1775.577696228101</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X23" t="n">
-        <v>1402.111937967022</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y23" t="n">
-        <v>1011.97260599121</v>
+        <v>1722.185086336931</v>
       </c>
     </row>
     <row r="24">
@@ -6050,34 +6050,34 @@
         <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>667.7988452409105</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C25" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
         <v>53.94298182036445</v>
@@ -6153,46 +6153,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064342</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1219.679656148628</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C26" t="n">
-        <v>850.7171392082162</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D26" t="n">
-        <v>850.7171392082162</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036444</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6256,22 +6256,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V26" t="n">
-        <v>2369.884586449641</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W26" t="n">
-        <v>2369.884586449641</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X26" t="n">
-        <v>1996.418828188561</v>
+        <v>1421.217123115521</v>
       </c>
       <c r="Y26" t="n">
-        <v>1606.27949621275</v>
+        <v>1036.358670716696</v>
       </c>
     </row>
     <row r="27">
@@ -6287,43 +6287,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1261.831893336434</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C29" t="n">
-        <v>892.8693763960225</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D29" t="n">
-        <v>534.603677789272</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E29" t="n">
-        <v>534.603677789272</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F29" t="n">
-        <v>534.603677789272</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6466,16 +6466,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6490,25 +6490,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U29" t="n">
-        <v>2224.752638628377</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V29" t="n">
-        <v>1893.689751284806</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W29" t="n">
-        <v>1540.921096014692</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X29" t="n">
-        <v>1261.831893336434</v>
+        <v>1562.681172365833</v>
       </c>
       <c r="Y29" t="n">
-        <v>1261.831893336434</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="30">
@@ -6533,7 +6533,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6566,7 +6566,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
         <v>2488.762748073963</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1036.358670716696</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="C32" t="n">
-        <v>1036.358670716696</v>
+        <v>1150.78176403888</v>
       </c>
       <c r="D32" t="n">
-        <v>1036.358670716696</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="E32" t="n">
-        <v>1036.358670716696</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036444</v>
@@ -6706,7 +6706,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V32" t="n">
-        <v>1662.483574129469</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W32" t="n">
-        <v>1409.824428977775</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X32" t="n">
-        <v>1036.358670716696</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="Y32" t="n">
-        <v>1036.358670716696</v>
+        <v>1150.78176403888</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036444</v>
@@ -6800,28 +6800,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
         <v>53.94298182036444</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V34" t="n">
-        <v>490.2500993552354</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W34" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X34" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y34" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>412.2086804271149</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="C35" t="n">
-        <v>412.2086804271149</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="D35" t="n">
-        <v>53.94298182036444</v>
+        <v>951.4492202526046</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036444</v>
+        <v>951.4492202526046</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036444</v>
+        <v>951.4492202526046</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>533.4854121507915</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>206.2906921867943</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036444</v>
@@ -6943,7 +6943,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6964,25 +6964,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T35" t="n">
-        <v>2500.006938703722</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2246.245153341813</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V35" t="n">
-        <v>1915.182265998242</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W35" t="n">
-        <v>1562.413610728128</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X35" t="n">
-        <v>1188.947852467049</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y35" t="n">
-        <v>798.8085204912368</v>
+        <v>1309.714918859355</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>667.7988452409105</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="C37" t="n">
-        <v>498.8626623130036</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G37" t="n">
         <v>53.94298182036444</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2053.247973680502</v>
+        <v>1700.479318410388</v>
       </c>
       <c r="C38" t="n">
-        <v>1684.28545674009</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D38" t="n">
-        <v>1326.01975813334</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E38" t="n">
-        <v>1326.01975813334</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F38" t="n">
-        <v>915.0338533437325</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G38" t="n">
-        <v>497.0700452419194</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>169.8753252779222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
         <v>881.2824271224076</v>
@@ -7186,7 +7186,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7213,13 +7213,13 @@
         <v>2443.387305656314</v>
       </c>
       <c r="W38" t="n">
-        <v>2443.387305656314</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X38" t="n">
-        <v>2443.387305656314</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y38" t="n">
-        <v>2053.247973680502</v>
+        <v>1700.479318410388</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424003</v>
@@ -7265,13 +7265,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7362,10 +7362,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V40" t="n">
         <v>343.360151857325</v>
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1322.340737411352</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C41" t="n">
-        <v>1322.340737411352</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D41" t="n">
-        <v>964.0750388046019</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E41" t="n">
-        <v>964.0750388046019</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>553.0891340149944</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>135.1253259131813</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332392</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2048.575150942546</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V41" t="n">
-        <v>2048.575150942546</v>
+        <v>2363.877877781635</v>
       </c>
       <c r="W41" t="n">
-        <v>1695.806495672432</v>
+        <v>2011.109222511521</v>
       </c>
       <c r="X41" t="n">
-        <v>1322.340737411352</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="Y41" t="n">
-        <v>1322.340737411352</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641985</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.9896501033331</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C43" t="n">
-        <v>97.9896501033331</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D43" t="n">
-        <v>97.9896501033331</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E43" t="n">
-        <v>97.9896501033331</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>352.67413830922</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>352.67413830922</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="V43" t="n">
-        <v>97.9896501033331</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="W43" t="n">
-        <v>97.9896501033331</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="X43" t="n">
-        <v>97.9896501033331</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.9896501033331</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>882.8926947117851</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C44" t="n">
-        <v>882.8926947117851</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D44" t="n">
-        <v>882.8926947117851</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117851</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.723949158869</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="W44" t="n">
-        <v>1646.497784948677</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="X44" t="n">
-        <v>1273.032026687597</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="Y44" t="n">
-        <v>882.8926947117851</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036444</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>500.820796875036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U46" t="n">
-        <v>211.6471865296039</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V46" t="n">
-        <v>211.6471865296039</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036444</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036444</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,10 +8546,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>255.9771075721939</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>361.0244890520117</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N12" t="n">
-        <v>111.7499598249992</v>
+        <v>270.0158396049241</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>143.5322372299481</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>110.0751567020608</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>82.65476256012153</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,7 +9248,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050812</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719075</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22552,16 +22552,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22600,16 +22600,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22634,16 +22634,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -22676,16 +22676,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>153.097156869101</v>
+        <v>109.6619469198454</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22786,13 +22786,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>164.9367954821779</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22846,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>258.8520309793366</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22865,13 +22865,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>153.0645313606844</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>90.01494526515904</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23004,10 +23004,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,13 +23023,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>302.8566240687152</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23041,7 +23041,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23162,10 +23162,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>15.06043824303563</v>
+        <v>220.0868321202553</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23260,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>138.6917128032271</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
         <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
         <v>205.0481221176458</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3343897888113</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>230.3475951399114</v>
       </c>
     </row>
     <row r="12">
@@ -23354,7 +23354,7 @@
         <v>137.2681884137393</v>
       </c>
       <c r="H12" t="n">
-        <v>42.80778770604684</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,22 +23387,22 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
-        <v>170.2839726213331</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>199.8611009721718</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>95.67194899262998</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23475,10 +23475,10 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>77.0064493759501</v>
       </c>
       <c r="W13" t="n">
-        <v>111.3918043887131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>10.17225478390685</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.4633753356636</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>330.8786841952548</v>
+        <v>330.8786841952547</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1163791463314</v>
+        <v>178.1163791463312</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>13.95442073795638</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>189.8931039215388</v>
+        <v>189.8931039215387</v>
       </c>
       <c r="T14" t="n">
-        <v>219.4215416234949</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2785039334788</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>125.3448960396722</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>136.8944188046378</v>
       </c>
       <c r="H15" t="n">
-        <v>107.898099562911</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493651</v>
+        <v>73.93425515493641</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.27434132826724</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.35454715303</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>27.37089888249261</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,7 +23639,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>56.87932682704772</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
-        <v>158.8796654153679</v>
+        <v>158.8796654153678</v>
       </c>
       <c r="I16" t="n">
         <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
-        <v>66.73999539781622</v>
+        <v>66.73999539781606</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.63455058802101</v>
+        <v>54.63455058802083</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>160.3641786191053</v>
       </c>
       <c r="S16" t="n">
         <v>217.4550733994452</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>92.90637920214373</v>
       </c>
     </row>
     <row r="17">
@@ -23737,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>304.9934478992083</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>71.53407739428889</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>72.6705324754106</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23946,7 +23946,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551389</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>127.9489962621424</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>245.488247397412</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>78.24366890293328</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24189,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>29.95250387826582</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.5680329932684</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24253,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>286.7884367860873</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>110.3648512204696</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>3.760398947239878</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>5.2280707812169</v>
       </c>
     </row>
     <row r="27">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,25 +24682,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24742,13 +24742,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>93.43279002699404</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>37.17011854290314</v>
       </c>
     </row>
     <row r="30">
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>59.54933966209452</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>96.01048066168093</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,22 +24922,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>6.519590009505066</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>99.10841501723618</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25128,16 +25128,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>16.63754732114123</v>
+        <v>96.0104806616809</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25168,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>1.107082982095648</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>75.75599214111415</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.2263354193847</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25368,7 +25368,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,13 +25393,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>261.7152771460101</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>37.15829622187906</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25453,7 +25453,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25602,13 +25602,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>243.5522521124685</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>303.5163274490147</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>101.8148464227923</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.3098022590509</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>259.9530542014774</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>86.49266907650713</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>158.9993246194574</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26076,16 +26076,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>165.3712490426389</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3958356744439</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>473736.5515495131</v>
+        <v>473736.5515495129</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473736.5515495131</v>
+        <v>473736.551549513</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473736.5515495131</v>
+        <v>473736.551549513</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>503568.916667905</v>
+        <v>503568.9166679051</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657566.815263491</v>
+        <v>657566.8152634921</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>807285.7756484511</v>
+        <v>807285.7756484509</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>807285.7756484509</v>
+        <v>807285.7756484511</v>
       </c>
     </row>
   </sheetData>
@@ -26319,13 +26319,13 @@
         <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="E2" t="n">
         <v>141745.4664845208</v>
       </c>
       <c r="F2" t="n">
-        <v>187164.7872550204</v>
+        <v>187164.7872550208</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
@@ -26334,19 +26334,19 @@
         <v>231322.0880126062</v>
       </c>
       <c r="I2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="M2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="N2" t="n">
         <v>231322.0880126061</v>
@@ -26377,10 +26377,10 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689322</v>
+        <v>195194.8921689335</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328031</v>
+        <v>185152.0893328016</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138651</v>
+        <v>49441.87186138688</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112656</v>
+        <v>47231.86264112622</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>25384.5047005482</v>
       </c>
       <c r="F4" t="n">
-        <v>26247.37101837719</v>
+        <v>26247.3710183772</v>
       </c>
       <c r="G4" t="n">
         <v>27086.83710496504</v>
@@ -26441,10 +26441,10 @@
         <v>27086.83710496504</v>
       </c>
       <c r="J4" t="n">
+        <v>27086.83710496503</v>
+      </c>
+      <c r="K4" t="n">
         <v>27086.83710496504</v>
-      </c>
-      <c r="K4" t="n">
-        <v>27086.83710496503</v>
       </c>
       <c r="L4" t="n">
         <v>27086.83710496504</v>
@@ -26481,7 +26481,7 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221572</v>
+        <v>33615.28060221583</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33622.44110290319</v>
+        <v>-22626.23154486681</v>
       </c>
       <c r="C6" t="n">
-        <v>47146.99042864448</v>
+        <v>58143.19998668096</v>
       </c>
       <c r="D6" t="n">
-        <v>47146.99042864451</v>
+        <v>58143.19998668099</v>
       </c>
       <c r="E6" t="n">
-        <v>48511.34854663228</v>
+        <v>59011.60587882436</v>
       </c>
       <c r="F6" t="n">
-        <v>-76721.00157767297</v>
+        <v>-68775.58103882255</v>
       </c>
       <c r="G6" t="n">
-        <v>-36216.73023439072</v>
+        <v>-30755.15786315194</v>
       </c>
       <c r="H6" t="n">
-        <v>148935.3590984125</v>
+        <v>154396.9314696498</v>
       </c>
       <c r="I6" t="n">
-        <v>148935.3590984125</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="J6" t="n">
-        <v>85875.41649930629</v>
+        <v>91336.98887054349</v>
       </c>
       <c r="K6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="L6" t="n">
-        <v>148935.3590984125</v>
+        <v>154396.9314696497</v>
       </c>
       <c r="M6" t="n">
-        <v>140177.7761031988</v>
+        <v>145639.348474436</v>
       </c>
       <c r="N6" t="n">
-        <v>99493.48723702593</v>
+        <v>104955.0596082628</v>
       </c>
       <c r="O6" t="n">
-        <v>101703.4964572859</v>
+        <v>107165.0688285235</v>
       </c>
       <c r="P6" t="n">
-        <v>148935.3590984124</v>
+        <v>154396.9314696497</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>208.7913421435323</v>
+        <v>208.7913421435335</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26758,13 +26758,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="J3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="K3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="J3" t="n">
-        <v>377.7436642170866</v>
-      </c>
-      <c r="K3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
         <v>377.7436642170866</v>
@@ -26801,10 +26801,10 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>478.0202194652421</v>
+        <v>478.0202194652435</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
         <v>674.2872727545556</v>
@@ -26813,7 +26813,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
@@ -26828,7 +26828,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26971,10 +26971,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>173.770081424407</v>
+        <v>173.7700814244081</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735543</v>
+        <v>168.9523220735531</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>201.8637057628865</v>
+        <v>201.863705762888</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893135</v>
+        <v>196.2670532893119</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27047,10 +27047,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628865</v>
+        <v>201.863705762888</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893134</v>
+        <v>196.267053289312</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628865</v>
+        <v>201.863705762888</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893135</v>
+        <v>196.2670532893119</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714859</v>
+        <v>0.8393621794714907</v>
       </c>
       <c r="H14" t="n">
-        <v>8.596117920512357</v>
+        <v>8.596117920512407</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407449</v>
+        <v>32.35951042407468</v>
       </c>
       <c r="J14" t="n">
-        <v>71.23981577991809</v>
+        <v>71.2398157799185</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369461</v>
+        <v>106.7700168369467</v>
       </c>
       <c r="L14" t="n">
-        <v>132.4576471369466</v>
+        <v>132.4576471369474</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961227</v>
+        <v>147.3846542961235</v>
       </c>
       <c r="N14" t="n">
-        <v>149.769492088546</v>
+        <v>149.7694920885469</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4230844164264</v>
+        <v>141.4230844164273</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107241</v>
+        <v>120.7013306107248</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.6416725584015</v>
+        <v>90.64167255840201</v>
       </c>
       <c r="R14" t="n">
-        <v>52.72558450622578</v>
+        <v>52.72558450622608</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470651</v>
+        <v>19.12696566470661</v>
       </c>
       <c r="T14" t="n">
-        <v>3.674307940636432</v>
+        <v>3.674307940636452</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771887</v>
+        <v>0.06714897435771924</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728808</v>
+        <v>0.4490983585728834</v>
       </c>
       <c r="H15" t="n">
-        <v>4.337344673585455</v>
+        <v>4.33734467358548</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647857</v>
+        <v>15.46237769647866</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692292</v>
+        <v>42.42994623692316</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51953626130593</v>
+        <v>72.51953626130634</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596995818</v>
+        <v>97.51146596995873</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682251</v>
+        <v>113.7912814682257</v>
       </c>
       <c r="N15" t="n">
-        <v>116.8029980921634</v>
+        <v>116.8029980921641</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364169</v>
+        <v>106.8519239364175</v>
       </c>
       <c r="P15" t="n">
-        <v>85.7580891909916</v>
+        <v>85.7580891909921</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152589966</v>
+        <v>57.32701152589999</v>
       </c>
       <c r="R15" t="n">
-        <v>27.88349282437589</v>
+        <v>27.88349282437605</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037526969</v>
+        <v>8.341805037527017</v>
       </c>
       <c r="T15" t="n">
-        <v>1.810181541791567</v>
+        <v>1.810181541791577</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0295459446429527</v>
+        <v>0.02954594464295287</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358779</v>
+        <v>0.37650897763588</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071717</v>
+        <v>3.347507092071736</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017713</v>
+        <v>11.32265180017719</v>
       </c>
       <c r="J16" t="n">
-        <v>26.61918471885656</v>
+        <v>26.61918471885672</v>
       </c>
       <c r="K16" t="n">
-        <v>43.7434975835138</v>
+        <v>43.74349758351405</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779225</v>
+        <v>55.97661654779257</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886764</v>
+        <v>59.01949364886799</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495215</v>
+        <v>57.61614200495248</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438756</v>
+        <v>53.21783258438786</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061561</v>
+        <v>45.53704944061587</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367337</v>
+        <v>31.52749266367356</v>
       </c>
       <c r="R16" t="n">
-        <v>16.9292127580641</v>
+        <v>16.9292127580642</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527069</v>
+        <v>6.561524637527107</v>
       </c>
       <c r="T16" t="n">
-        <v>1.608720177171478</v>
+        <v>1.608720177171487</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02053685332559336</v>
+        <v>0.02053685332559348</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32338,16 +32338,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35266,10 +35266,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>113.3808631277494</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>237.9770422219167</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>158.2658797799248</v>
       </c>
       <c r="O12" t="n">
         <v>269.1887005891756</v>
@@ -35509,7 +35509,7 @@
         <v>198.8728484821096</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>79.71116244199196</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.29052642530557</v>
+        <v>59.29052642530598</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8255783631303</v>
+        <v>210.8255783631309</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174099</v>
+        <v>314.3524467174106</v>
       </c>
       <c r="M14" t="n">
-        <v>366.5519545616825</v>
+        <v>366.5519545616833</v>
       </c>
       <c r="N14" t="n">
-        <v>357.7033529039393</v>
+        <v>357.7033529039401</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574851</v>
+        <v>292.1250542574859</v>
       </c>
       <c r="P14" t="n">
-        <v>211.2670430269372</v>
+        <v>211.2670430269379</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.65097334385669</v>
+        <v>80.6509733438572</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.68335491066507</v>
+        <v>41.68335491066531</v>
       </c>
       <c r="K15" t="n">
-        <v>199.1433342995255</v>
+        <v>199.1433342995259</v>
       </c>
       <c r="L15" t="n">
-        <v>329.7974314935432</v>
+        <v>329.7974314935437</v>
       </c>
       <c r="M15" t="n">
-        <v>437.3623112962067</v>
+        <v>437.3623112962073</v>
       </c>
       <c r="N15" t="n">
-        <v>128.9935232387782</v>
+        <v>464.8036603523843</v>
       </c>
       <c r="O15" t="n">
-        <v>358.117998768702</v>
+        <v>358.1179987687026</v>
       </c>
       <c r="P15" t="n">
-        <v>270.2464504165985</v>
+        <v>61.85883847872262</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.4225251757272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763095</v>
+        <v>21.4740057576312</v>
       </c>
       <c r="L16" t="n">
-        <v>83.56664180810839</v>
+        <v>83.56664180810871</v>
       </c>
       <c r="M16" t="n">
-        <v>98.60337061070823</v>
+        <v>98.60337061070857</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7483143841807</v>
+        <v>101.7483143841811</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842724</v>
+        <v>77.80296049842752</v>
       </c>
       <c r="P16" t="n">
-        <v>42.8156087055091</v>
+        <v>42.81560870550936</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35898,10 +35898,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
         <v>173.8110948137341</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37399,13 +37399,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
         <v>308.9376163116798</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624587</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37873,7 +37873,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,7 +38107,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245897</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
